--- a/v3dot0/Primer/data/GK2015_Data.xlsx
+++ b/v3dot0/Primer/data/GK2015_Data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\321471\Desktop\VAR-Toolbox\Manual\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jambro/Google Drive/VAR-Toolbox/v3dot0/Primer/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFA32A1-1E17-544F-A75F-7143A1C5BF7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="36" windowWidth="28620" windowHeight="12408"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="28620" windowHeight="12400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1242,7 +1243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1857,6 +1858,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1892,6 +1910,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2067,7 +2102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F398"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2075,15 +2110,16 @@
       <selection activeCell="C1" sqref="C1:K1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1:K1"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:K1"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>402</v>
       </c>
@@ -2100,7 +2136,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2117,7 +2153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2137,7 +2173,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2157,7 +2193,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2177,7 +2213,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2197,7 +2233,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2217,7 +2253,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2237,7 +2273,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2257,7 +2293,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2277,7 +2313,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2297,7 +2333,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2317,7 +2353,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2337,7 +2373,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2357,7 +2393,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2377,7 +2413,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2397,7 +2433,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2417,7 +2453,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2437,7 +2473,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2457,7 +2493,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2477,7 +2513,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2497,7 +2533,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2517,7 +2553,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2537,7 +2573,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2557,7 +2593,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2577,7 +2613,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2597,7 +2633,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2617,7 +2653,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2637,7 +2673,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2657,7 +2693,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2677,7 +2713,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2697,7 +2733,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2717,7 +2753,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2737,7 +2773,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2757,7 +2793,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2777,7 +2813,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2797,7 +2833,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2817,7 +2853,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2837,7 +2873,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2857,7 +2893,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2877,7 +2913,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2897,7 +2933,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2917,7 +2953,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2937,7 +2973,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2957,7 +2993,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2977,7 +3013,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2997,7 +3033,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3017,7 +3053,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -3037,7 +3073,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3057,7 +3093,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -3077,7 +3113,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -3097,7 +3133,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -3117,7 +3153,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -3137,7 +3173,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -3157,7 +3193,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -3177,7 +3213,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -3197,7 +3233,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -3217,7 +3253,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -3237,7 +3273,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -3257,7 +3293,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -3277,7 +3313,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -3297,7 +3333,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -3317,7 +3353,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -3337,7 +3373,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -3357,7 +3393,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -3377,7 +3413,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -3397,7 +3433,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -3417,7 +3453,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -3437,7 +3473,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -3457,7 +3493,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -3477,7 +3513,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -3497,7 +3533,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -3517,7 +3553,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -3537,7 +3573,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -3557,7 +3593,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -3577,7 +3613,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -3597,7 +3633,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -3617,7 +3653,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -3637,7 +3673,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -3657,7 +3693,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -3677,7 +3713,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -3697,7 +3733,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -3717,7 +3753,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -3737,7 +3773,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -3757,7 +3793,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -3777,7 +3813,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -3797,7 +3833,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -3817,7 +3853,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -3837,7 +3873,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -3857,7 +3893,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -3877,7 +3913,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -3897,7 +3933,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -3917,7 +3953,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -3937,7 +3973,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -3957,7 +3993,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -3977,7 +4013,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -3997,7 +4033,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -4017,7 +4053,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -4037,7 +4073,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -4057,7 +4093,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -4077,7 +4113,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -4097,7 +4133,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -4117,7 +4153,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -4137,7 +4173,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -4157,7 +4193,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -4177,7 +4213,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -4197,7 +4233,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -4217,7 +4253,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -4237,7 +4273,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -4257,7 +4293,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -4277,7 +4313,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -4297,7 +4333,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -4317,7 +4353,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -4337,7 +4373,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -4357,7 +4393,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -4377,7 +4413,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -4397,7 +4433,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -4417,7 +4453,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -4437,7 +4473,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -4457,7 +4493,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -4477,7 +4513,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -4497,7 +4533,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -4517,7 +4553,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -4537,7 +4573,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -4557,7 +4593,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -4577,7 +4613,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -4597,7 +4633,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -4617,7 +4653,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -4637,7 +4673,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -4657,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -4677,7 +4713,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -4697,7 +4733,7 @@
         <v>-7.5805999999999998E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -4717,7 +4753,7 @@
         <v>-1.7419400000000002E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -4737,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -4757,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -4777,7 +4813,7 @@
         <v>-6.64516E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -4797,7 +4833,7 @@
         <v>-3.3548399999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -4817,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -4837,7 +4873,7 @@
         <v>-1.1280999999999999E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -4857,7 +4893,7 @@
         <v>-1.3042399999999999E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -4877,7 +4913,7 @@
         <v>-9.5666699999999993E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -4897,7 +4933,7 @@
         <v>-0.16741929999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -4917,7 +4953,7 @@
         <v>-0.2304378</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -4937,7 +4973,7 @@
         <v>-3.6336399999999998E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -4957,7 +4993,7 @@
         <v>-3.2139800000000003E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -4977,7 +5013,7 @@
         <v>-0.19463440000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -4997,7 +5033,7 @@
         <v>-9.0322000000000006E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -5017,7 +5053,7 @@
         <v>8.7097000000000008E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -5037,7 +5073,7 @@
         <v>-8.0322599999999994E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -5057,7 +5093,7 @@
         <v>1.6129E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -5077,7 +5113,7 @@
         <v>-2.5806000000000002E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -5097,7 +5133,7 @@
         <v>-0.13741929999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -5117,7 +5153,7 @@
         <v>-0.12064519999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -5137,7 +5173,7 @@
         <v>-0.14935480000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -5157,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -5177,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -5197,7 +5233,7 @@
         <v>-0.14933340000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -5217,7 +5253,7 @@
         <v>-4.67997E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -5237,7 +5273,7 @@
         <v>6.1228999999999997E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -5257,7 +5293,7 @@
         <v>-0.29032249999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -5277,7 +5313,7 @@
         <v>-5.4838999999999999E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -5297,7 +5333,7 @@
         <v>1.4806400000000001E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -5317,7 +5353,7 @@
         <v>9.0646000000000008E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -5337,7 +5373,7 @@
         <v>1.9354999999999999E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -5357,7 +5393,7 @@
         <v>-2.9031999999999999E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -5377,7 +5413,7 @@
         <v>-7.0968000000000003E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -5397,7 +5433,7 @@
         <v>-1.7857100000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>169</v>
       </c>
@@ -5417,7 +5453,7 @@
         <v>-2.1429000000000001E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -5437,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>171</v>
       </c>
@@ -5457,7 +5493,7 @@
         <v>-8.3870999999999998E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -5477,7 +5513,7 @@
         <v>-1.1612900000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -5497,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -5517,7 +5553,7 @@
         <v>4.5161000000000003E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -5537,7 +5573,7 @@
         <v>8.4839000000000008E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -5557,7 +5593,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>177</v>
       </c>
@@ -5577,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -5597,7 +5633,7 @@
         <v>-3.2258E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -5617,7 +5653,7 @@
         <v>-6.7742000000000002E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>180</v>
       </c>
@@ -5637,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -5657,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>182</v>
       </c>
@@ -5677,7 +5713,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>183</v>
       </c>
@@ -5697,7 +5733,7 @@
         <v>9.2193499999999998E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -5717,7 +5753,7 @@
         <v>2.58064E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>185</v>
       </c>
@@ -5737,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>186</v>
       </c>
@@ -5757,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>187</v>
       </c>
@@ -5777,7 +5813,7 @@
         <v>-3.9998999999999998E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -5797,7 +5833,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>189</v>
       </c>
@@ -5817,7 +5853,7 @@
         <v>4.2666700000000002E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>190</v>
       </c>
@@ -5837,7 +5873,7 @@
         <v>1.7978399999999999E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>191</v>
       </c>
@@ -5857,7 +5893,7 @@
         <v>-3.0645100000000002E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -5877,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>193</v>
       </c>
@@ -5897,7 +5933,7 @@
         <v>2.5806000000000002E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -5917,7 +5953,7 @@
         <v>1.7419299999999999E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -5937,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>196</v>
       </c>
@@ -5957,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -5977,7 +6013,7 @@
         <v>-0.12580649999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -5997,7 +6033,7 @@
         <v>-2.41935E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>199</v>
       </c>
@@ -6017,7 +6053,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -6037,7 +6073,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -6057,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -6077,7 +6113,7 @@
         <v>-2.0967699999999999E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>203</v>
       </c>
@@ -6097,7 +6133,7 @@
         <v>-2.96774E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>204</v>
       </c>
@@ -6117,7 +6153,7 @@
         <v>-1.9354799999999998E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>205</v>
       </c>
@@ -6137,7 +6173,7 @@
         <v>1.9335999999999999E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>206</v>
       </c>
@@ -6157,7 +6193,7 @@
         <v>8.0564E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -6177,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -6197,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -6217,7 +6253,7 @@
         <v>-2.8064499999999999E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>210</v>
       </c>
@@ -6237,7 +6273,7 @@
         <v>-1.9354999999999999E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>211</v>
       </c>
@@ -6257,7 +6293,7 @@
         <v>-3.0333300000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>212</v>
       </c>
@@ -6277,7 +6313,7 @@
         <v>-9.9666699999999997E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -6297,7 +6333,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -6317,7 +6353,7 @@
         <v>-8.8386999999999997E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -6337,7 +6373,7 @@
         <v>-5.1612999999999997E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -6357,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>217</v>
       </c>
@@ -6377,7 +6413,7 @@
         <v>9.0322000000000006E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>218</v>
       </c>
@@ -6397,7 +6433,7 @@
         <v>3.0967700000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>219</v>
       </c>
@@ -6417,7 +6453,7 @@
         <v>-3.48387E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>220</v>
       </c>
@@ -6437,7 +6473,7 @@
         <v>-5.5161500000000002E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>221</v>
       </c>
@@ -6457,7 +6493,7 @@
         <v>-1.9354799999999998E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>222</v>
       </c>
@@ -6477,7 +6513,7 @@
         <v>3.5484000000000002E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>223</v>
       </c>
@@ -6497,7 +6533,7 @@
         <v>5.8063999999999998E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>224</v>
       </c>
@@ -6517,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -6537,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>226</v>
       </c>
@@ -6557,7 +6593,7 @@
         <v>-5.1612999999999997E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>227</v>
       </c>
@@ -6577,7 +6613,7 @@
         <v>-4.8386999999999996E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -6597,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>229</v>
       </c>
@@ -6617,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>230</v>
       </c>
@@ -6637,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>231</v>
       </c>
@@ -6657,7 +6693,7 @@
         <v>-4.1935000000000002E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>232</v>
       </c>
@@ -6677,7 +6713,7 @@
         <v>-5.8063999999999998E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>233</v>
       </c>
@@ -6697,7 +6733,7 @@
         <v>9.9900000000000006E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>234</v>
       </c>
@@ -6717,7 +6753,7 @@
         <v>4.5161000000000003E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>235</v>
       </c>
@@ -6737,7 +6773,7 @@
         <v>1.01504E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>236</v>
       </c>
@@ -6757,7 +6793,7 @@
         <v>-7.1763300000000002E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>237</v>
       </c>
@@ -6777,7 +6813,7 @@
         <v>-0.11290310000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>238</v>
       </c>
@@ -6797,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>239</v>
       </c>
@@ -6817,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -6837,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>241</v>
       </c>
@@ -6857,7 +6893,7 @@
         <v>-1.2903000000000001E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>242</v>
       </c>
@@ -6877,7 +6913,7 @@
         <v>-1.8709699999999999E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>243</v>
       </c>
@@ -6897,7 +6933,7 @@
         <v>1.8064500000000001E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>244</v>
       </c>
@@ -6917,7 +6953,7 @@
         <v>1.9602100000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>245</v>
       </c>
@@ -6937,7 +6973,7 @@
         <v>-6.7666500000000004E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>246</v>
       </c>
@@ -6957,7 +6993,7 @@
         <v>3.8709999999999999E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>247</v>
       </c>
@@ -6977,7 +7013,7 @@
         <v>1.1128900000000001E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>248</v>
       </c>
@@ -6997,7 +7033,7 @@
         <v>3.48387E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>249</v>
       </c>
@@ -7017,7 +7053,7 @@
         <v>3.5166299999999998E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>250</v>
       </c>
@@ -7037,7 +7073,7 @@
         <v>2.82309E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>251</v>
       </c>
@@ -7057,7 +7093,7 @@
         <v>-3.2258E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>252</v>
       </c>
@@ -7077,7 +7113,7 @@
         <v>4.8275000000000002E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>253</v>
       </c>
@@ -7097,7 +7133,7 @@
         <v>-3.3723999999999998E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>254</v>
       </c>
@@ -7117,7 +7153,7 @@
         <v>-6.4451999999999999E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>255</v>
       </c>
@@ -7137,7 +7173,7 @@
         <v>3.61292E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>256</v>
       </c>
@@ -7157,7 +7193,7 @@
         <v>3.23699E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>257</v>
       </c>
@@ -7177,7 +7213,7 @@
         <v>-1.3509E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>258</v>
       </c>
@@ -7197,7 +7233,7 @@
         <v>1.6129E-3</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>259</v>
       </c>
@@ -7217,7 +7253,7 @@
         <v>3.3871999999999999E-3</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>260</v>
       </c>
@@ -7237,7 +7273,7 @@
         <v>2.3387000000000002E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>261</v>
       </c>
@@ -7257,7 +7293,7 @@
         <v>1.6129E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>262</v>
       </c>
@@ -7277,7 +7313,7 @@
         <v>-2.0967E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>263</v>
       </c>
@@ -7297,7 +7333,7 @@
         <v>-0.14225789999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>264</v>
       </c>
@@ -7317,7 +7353,7 @@
         <v>1.9364599999999999E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>265</v>
       </c>
@@ -7337,7 +7373,7 @@
         <v>-2.9032200000000001E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>266</v>
       </c>
@@ -7357,7 +7393,7 @@
         <v>-0.20630119999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>267</v>
       </c>
@@ -7377,7 +7413,7 @@
         <v>-0.2864408</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>268</v>
       </c>
@@ -7397,7 +7433,7 @@
         <v>-5.3225799999999997E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>269</v>
       </c>
@@ -7417,7 +7453,7 @@
         <v>6.5000100000000005E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>270</v>
       </c>
@@ -7437,7 +7473,7 @@
         <v>-7.0968000000000003E-3</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>271</v>
       </c>
@@ -7457,7 +7493,7 @@
         <v>-1.29032E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>272</v>
       </c>
@@ -7477,7 +7513,7 @@
         <v>-3.8709599999999997E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>273</v>
       </c>
@@ -7497,7 +7533,7 @@
         <v>-0.1179571</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>274</v>
       </c>
@@ -7517,7 +7553,7 @@
         <v>-4.3655899999999997E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>275</v>
       </c>
@@ -7537,7 +7573,7 @@
         <v>-8.3870999999999998E-3</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>276</v>
       </c>
@@ -7557,7 +7593,7 @@
         <v>1.8709699999999999E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>277</v>
       </c>
@@ -7577,7 +7613,7 @@
         <v>-1.88708E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>278</v>
       </c>
@@ -7597,7 +7633,7 @@
         <v>-2.6128999999999999E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>279</v>
       </c>
@@ -7617,7 +7653,7 @@
         <v>-1.6129000000000001E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>280</v>
       </c>
@@ -7637,7 +7673,7 @@
         <v>-5.5376999999999996E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>281</v>
       </c>
@@ -7657,7 +7693,7 @@
         <v>-8.3333999999999995E-3</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>282</v>
       </c>
@@ -7677,7 +7713,7 @@
         <v>-2.4516099999999999E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>283</v>
       </c>
@@ -7697,7 +7733,7 @@
         <v>-1.6650399999999999E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>284</v>
       </c>
@@ -7717,7 +7753,7 @@
         <v>-3.8333E-3</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>285</v>
       </c>
@@ -7737,7 +7773,7 @@
         <v>-7.0833400000000005E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>286</v>
       </c>
@@ -7757,7 +7793,7 @@
         <v>-7.0698000000000002E-3</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>287</v>
       </c>
@@ -7777,7 +7813,7 @@
         <v>5.8063999999999998E-3</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>288</v>
       </c>
@@ -7797,7 +7833,7 @@
         <v>2.7096700000000001E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>289</v>
       </c>
@@ -7817,7 +7853,7 @@
         <v>-9.0322000000000006E-3</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>290</v>
       </c>
@@ -7837,7 +7873,7 @@
         <v>-1.09677E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>291</v>
       </c>
@@ -7857,7 +7893,7 @@
         <v>-3.3548399999999999E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>292</v>
       </c>
@@ -7877,7 +7913,7 @@
         <v>1.45483E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>293</v>
       </c>
@@ -7897,7 +7933,7 @@
         <v>8.4000099999999994E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>294</v>
       </c>
@@ -7917,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>295</v>
       </c>
@@ -7937,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>296</v>
       </c>
@@ -7957,7 +7993,7 @@
         <v>-1.2903000000000001E-3</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>297</v>
       </c>
@@ -7977,7 +8013,7 @@
         <v>-8.7097000000000008E-3</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>298</v>
       </c>
@@ -7997,7 +8033,7 @@
         <v>3.7096E-3</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>299</v>
       </c>
@@ -8017,7 +8053,7 @@
         <v>1.9354999999999999E-3</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>300</v>
       </c>
@@ -8037,7 +8073,7 @@
         <v>4.3550000000000004E-3</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>301</v>
       </c>
@@ -8057,7 +8093,7 @@
         <v>-2.5806000000000002E-3</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>302</v>
       </c>
@@ -8077,7 +8113,7 @@
         <v>-2.4195000000000002E-3</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>303</v>
       </c>
@@ -8097,7 +8133,7 @@
         <v>-4.5161000000000003E-3</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>304</v>
       </c>
@@ -8117,7 +8153,7 @@
         <v>-8.1709999999999997E-4</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>305</v>
       </c>
@@ -8137,7 +8173,7 @@
         <v>-9.6667000000000003E-3</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>306</v>
       </c>
@@ -8157,7 +8193,7 @@
         <v>2.83799E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>307</v>
       </c>
@@ -8177,7 +8213,7 @@
         <v>8.2766999999999997E-3</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>308</v>
       </c>
@@ -8197,7 +8233,7 @@
         <v>-6.6667000000000002E-3</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>309</v>
       </c>
@@ -8217,7 +8253,7 @@
         <v>-6.9931000000000004E-3</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>310</v>
       </c>
@@ -8237,7 +8273,7 @@
         <v>-5.9001000000000001E-3</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>311</v>
       </c>
@@ -8257,7 +8293,7 @@
         <v>-2.0969000000000001E-3</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>312</v>
       </c>
@@ -8277,7 +8313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>313</v>
       </c>
@@ -8297,7 +8333,7 @@
         <v>3.2258E-3</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>314</v>
       </c>
@@ -8317,7 +8353,7 @@
         <v>6.7742000000000002E-3</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>315</v>
       </c>
@@ -8337,7 +8373,7 @@
         <v>9.3547999999999999E-3</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>316</v>
       </c>
@@ -8357,7 +8393,7 @@
         <v>1.1451E-3</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>317</v>
       </c>
@@ -8377,7 +8413,7 @@
         <v>1.45001E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>318</v>
       </c>
@@ -8397,7 +8433,7 @@
         <v>-7.4193000000000002E-3</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>319</v>
       </c>
@@ -8417,7 +8453,7 @@
         <v>8.4192999999999994E-3</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>320</v>
       </c>
@@ -8437,7 +8473,7 @@
         <v>1.9000099999999999E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>321</v>
       </c>
@@ -8457,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>322</v>
       </c>
@@ -8477,7 +8513,7 @@
         <v>-3.0645999999999998E-3</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>323</v>
       </c>
@@ -8497,7 +8533,7 @@
         <v>-1.1289E-3</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>324</v>
       </c>
@@ -8517,7 +8553,7 @@
         <v>2.41935E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>325</v>
       </c>
@@ -8537,7 +8573,7 @@
         <v>3.8709999999999999E-3</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>326</v>
       </c>
@@ -8557,7 +8593,7 @@
         <v>2.6128999999999999E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>327</v>
       </c>
@@ -8577,7 +8613,7 @@
         <v>2.4838699999999998E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>328</v>
       </c>
@@ -8597,7 +8633,7 @@
         <v>8.4945999999999997E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>329</v>
       </c>
@@ -8617,7 +8653,7 @@
         <v>-2.3333300000000001E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>330</v>
       </c>
@@ -8637,7 +8673,7 @@
         <v>-2.7096700000000001E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>331</v>
       </c>
@@ -8657,7 +8693,7 @@
         <v>-7.9030999999999997E-3</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>332</v>
       </c>
@@ -8677,7 +8713,7 @@
         <v>-1.1291999999999999E-3</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>333</v>
       </c>
@@ -8697,7 +8733,7 @@
         <v>-3.8709999999999999E-3</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>334</v>
       </c>
@@ -8717,7 +8753,7 @@
         <v>-3.2258E-3</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>335</v>
       </c>
@@ -8737,7 +8773,7 @@
         <v>-1.9354999999999999E-3</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>336</v>
       </c>
@@ -8757,7 +8793,7 @@
         <v>-4.8386999999999996E-3</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>337</v>
       </c>
@@ -8777,7 +8813,7 @@
         <v>-5.326E-3</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>338</v>
       </c>
@@ -8797,7 +8833,7 @@
         <v>-9.6837999999999994E-3</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>339</v>
       </c>
@@ -8817,7 +8853,7 @@
         <v>3.7096E-3</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>340</v>
       </c>
@@ -8837,7 +8873,7 @@
         <v>1.2903000000000001E-3</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>341</v>
       </c>
@@ -8857,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>342</v>
       </c>
@@ -8877,7 +8913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>343</v>
       </c>
@@ -8897,7 +8933,7 @@
         <v>-7.3666800000000005E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>344</v>
       </c>
@@ -8917,7 +8953,7 @@
         <v>-9.5365500000000006E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>345</v>
       </c>
@@ -8937,7 +8973,7 @@
         <v>2.9032200000000001E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>346</v>
       </c>
@@ -8957,7 +8993,7 @@
         <v>2.0322799999999999E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>347</v>
       </c>
@@ -8977,7 +9013,7 @@
         <v>-3.9032200000000003E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>348</v>
       </c>
@@ -8997,7 +9033,7 @@
         <v>-0.20629049999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>349</v>
       </c>
@@ -9017,7 +9053,7 @@
         <v>3.3870900000000002E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>350</v>
       </c>
@@ -9037,7 +9073,7 @@
         <v>3.86291E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>351</v>
       </c>
@@ -9057,7 +9093,7 @@
         <v>-7.2499999999999995E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>352</v>
       </c>
@@ -9077,7 +9113,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>353</v>
       </c>
@@ -9097,7 +9133,7 @@
         <v>1.20001E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>354</v>
       </c>
@@ -9117,7 +9153,7 @@
         <v>-2.6128999999999999E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>355</v>
       </c>
@@ -9137,7 +9173,7 @@
         <v>5.6128999999999998E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>356</v>
       </c>
@@ -9157,7 +9193,7 @@
         <v>4.7427200000000003E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>357</v>
       </c>
@@ -9177,7 +9213,7 @@
         <v>-4.74172E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>358</v>
       </c>
@@ -9197,7 +9233,7 @@
         <v>-9.5489000000000004E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>359</v>
       </c>
@@ -9217,7 +9253,7 @@
         <v>-8.95209E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>360</v>
       </c>
@@ -9237,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>361</v>
       </c>
@@ -9257,7 +9293,7 @@
         <v>-4.5161000000000003E-3</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>362</v>
       </c>
@@ -9277,7 +9313,7 @@
         <v>-5.1507999999999996E-3</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>363</v>
       </c>
@@ -9297,7 +9333,7 @@
         <v>4.6667999999999996E-3</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>364</v>
       </c>
@@ -9317,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>365</v>
       </c>
@@ -9337,7 +9373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>366</v>
       </c>
@@ -9357,7 +9393,7 @@
         <v>-3.2258E-3</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>367</v>
       </c>
@@ -9377,7 +9413,7 @@
         <v>-5.7742999999999996E-3</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>368</v>
       </c>
@@ -9397,7 +9433,7 @@
         <v>-1.09999E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>369</v>
       </c>
@@ -9417,7 +9453,7 @@
         <v>-8.9910000000000007E-3</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>370</v>
       </c>
@@ -9437,7 +9473,7 @@
         <v>-3.5796000000000001E-3</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>371</v>
       </c>
@@ -9457,7 +9493,7 @@
         <v>-2.4195000000000002E-3</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>372</v>
       </c>
@@ -9477,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>373</v>
       </c>
@@ -9497,7 +9533,7 @@
         <v>-5.1612999999999997E-3</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>374</v>
       </c>
@@ -9517,7 +9553,7 @@
         <v>-5.8386000000000002E-3</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>375</v>
       </c>
@@ -9537,7 +9573,7 @@
         <v>-9.0001000000000005E-3</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>376</v>
       </c>
@@ -9557,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>377</v>
       </c>
@@ -9577,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>378</v>
       </c>
@@ -9597,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>379</v>
       </c>
@@ -9617,7 +9653,7 @@
         <v>1.6668E-3</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>380</v>
       </c>
@@ -9637,7 +9673,7 @@
         <v>3.3333E-3</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>381</v>
       </c>
@@ -9657,7 +9693,7 @@
         <v>4.6665999999999999E-3</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>382</v>
       </c>
@@ -9677,7 +9713,7 @@
         <v>3.3330000000000002E-4</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>383</v>
       </c>
@@ -9697,7 +9733,7 @@
         <v>-9.6770000000000005E-4</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>384</v>
       </c>
@@ -9717,7 +9753,7 @@
         <v>-4.0321000000000003E-3</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>385</v>
       </c>
@@ -9737,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>386</v>
       </c>
@@ -9757,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>387</v>
       </c>
@@ -9777,7 +9813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>388</v>
       </c>
@@ -9797,7 +9833,7 @@
         <v>-1.5001000000000001E-3</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>389</v>
       </c>
@@ -9817,7 +9853,7 @@
         <v>-3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>390</v>
       </c>
@@ -9837,7 +9873,7 @@
         <v>-3.7096E-3</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>391</v>
       </c>
@@ -9857,7 +9893,7 @@
         <v>5.3762999999999997E-3</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>392</v>
       </c>
@@ -9877,7 +9913,7 @@
         <v>1.3333299999999999E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>393</v>
       </c>
@@ -9897,7 +9933,7 @@
         <v>9.6667000000000003E-3</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>394</v>
       </c>
@@ -9917,7 +9953,7 @@
         <v>3.3330000000000002E-4</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>395</v>
       </c>
@@ -9937,7 +9973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>396</v>
       </c>
@@ -9957,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>397</v>
       </c>
@@ -9977,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>398</v>
       </c>
@@ -9997,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>399</v>
       </c>
@@ -10017,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>400</v>
       </c>
